--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/MenuConverter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/issue-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8923636A-CA63-AC4B-AEEF-C9A6CC2D9D99}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -70,9 +71,6 @@
     <t>/issue/issue-type</t>
   </si>
   <si>
-    <t>knowledge</t>
-  </si>
-  <si>
     <t>organization</t>
   </si>
   <si>
@@ -152,9 +150,6 @@
   </si>
   <si>
     <t>choerodon.code.issue</t>
-  </si>
-  <si>
-    <t>问题设置</t>
   </si>
   <si>
     <t>Issue</t>
@@ -261,12 +256,100 @@
     <t>优先级路由</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>issue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题类型设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue Type Setting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops_chart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>State Machine Setting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue Attribute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseline-drag_indicator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.issue-type-menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.state-machine-menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.issue.attribute-menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>style</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignment_late</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flip_to_back</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdr_strong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>format_list_numbered</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -284,6 +367,11 @@
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -306,10 +394,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -319,6 +408,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -608,19 +700,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H8" sqref="H8:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.19921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
@@ -633,7 +725,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -668,7 +760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
@@ -676,16 +768,16 @@
         <v>12</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -697,24 +789,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:14">
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s">
         <v>13</v>
       </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -726,24 +818,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:14">
       <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -755,24 +847,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:14">
       <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -784,24 +876,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:14">
       <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
         <v>26</v>
       </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -813,24 +905,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:14">
       <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s">
         <v>13</v>
       </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
       <c r="J13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -854,32 +946,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:O14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="D7:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.796875" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.19921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.59765625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" style="1" customWidth="1"/>
-    <col min="13" max="15" width="11.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.19921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.59765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.59765625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.3984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" style="1" customWidth="1"/>
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
@@ -888,252 +982,339 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="1" t="s">
+    </row>
+    <row r="8" spans="4:15" ht="12.75" customHeight="1">
+      <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="J8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="L8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="N8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="F9" t="s">
+    <row r="9" spans="4:15" s="1" customFormat="1">
+      <c r="F9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15">
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15">
+      <c r="F11" t="s">
         <v>47</v>
       </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
         <v>13</v>
       </c>
-      <c r="K9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="F10" t="s">
+      <c r="M11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" s="1" customFormat="1">
+      <c r="F12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15">
+      <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="J13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" t="s">
         <v>13</v>
       </c>
-      <c r="K10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="F11" t="s">
+      <c r="M13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15">
+      <c r="F14" t="s">
         <v>51</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" t="s">
         <v>22</v>
       </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="J14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" t="s">
         <v>13</v>
       </c>
-      <c r="K11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="F12" t="s">
+      <c r="M14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" s="1" customFormat="1">
+      <c r="F15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15">
+      <c r="F16" t="s">
         <v>53</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" t="s">
         <v>25</v>
       </c>
-      <c r="H12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="J16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" t="s">
         <v>13</v>
       </c>
-      <c r="K12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="F13" t="s">
+      <c r="M16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="6:15">
+      <c r="F17" t="s">
         <v>55</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s">
         <v>28</v>
       </c>
-      <c r="H13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="J17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" t="s">
         <v>13</v>
       </c>
-      <c r="K13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" t="s">
-        <v>45</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" t="s">
-        <v>45</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
+      <c r="M17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1148,14 +1329,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" style="1" customWidth="1"/>
@@ -1165,66 +1346,66 @@
     <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+      <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="2" t="s">
+    </row>
+    <row r="9" spans="4:7">
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="1" t="s">
+    <row r="10" spans="4:7">
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
+    <row r="11" spans="4:7">
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
+    <row r="12" spans="4:7">
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" t="s">
+    <row r="13" spans="4:7">
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/issue-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/issue-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8923636A-CA63-AC4B-AEEF-C9A6CC2D9D99}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
-    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
+    <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId3"/>
+    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -344,12 +344,26 @@
     <t>format_list_numbered</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+  </si>
+  <si>
+    <t>FD_CATEGORY_MENU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -700,14 +714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
@@ -725,7 +739,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -760,7 +774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
@@ -789,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>16</v>
       </c>
@@ -818,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>19</v>
       </c>
@@ -847,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>22</v>
       </c>
@@ -876,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>25</v>
       </c>
@@ -905,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>28</v>
       </c>
@@ -946,14 +960,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
@@ -971,7 +985,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1009,7 +1023,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1">
+    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1038,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:15" s="1" customFormat="1">
+    <row r="9" spans="4:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
         <v>85</v>
       </c>
@@ -1067,7 +1081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>44</v>
       </c>
@@ -1099,7 +1113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>47</v>
       </c>
@@ -1131,7 +1145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="4:15" s="1" customFormat="1">
+    <row r="12" spans="4:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
         <v>86</v>
       </c>
@@ -1160,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>49</v>
       </c>
@@ -1192,7 +1206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>51</v>
       </c>
@@ -1224,7 +1238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="4:15" s="1" customFormat="1">
+    <row r="15" spans="4:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
         <v>87</v>
       </c>
@@ -1253,7 +1267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="4:15">
+    <row r="16" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>53</v>
       </c>
@@ -1285,7 +1299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="6:15">
+    <row r="17" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>55</v>
       </c>
@@ -1329,14 +1343,164 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="27.796875" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" customWidth="1"/>
+    <col min="6" max="6" width="24.796875" customWidth="1"/>
+    <col min="7" max="7" width="39.796875" customWidth="1"/>
+    <col min="8" max="8" width="21.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" style="1" customWidth="1"/>
@@ -1346,7 +1510,7 @@
     <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>57</v>
       </c>
@@ -1360,7 +1524,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+    <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1368,7 +1532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>47</v>
       </c>
@@ -1376,7 +1540,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
+    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>49</v>
       </c>
@@ -1384,7 +1548,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
+    <row r="11" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>51</v>
       </c>
@@ -1392,7 +1556,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
+    <row r="12" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>53</v>
       </c>
@@ -1400,7 +1564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
+    <row r="13" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>55</v>
       </c>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O17"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F17"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1049,7 +1049,7 @@
         <v>43</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="4:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1078,7 +1078,7 @@
         <v>78</v>
       </c>
       <c r="O9" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="4:15" x14ac:dyDescent="0.15">
@@ -1110,7 +1110,7 @@
         <v>88</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:15" x14ac:dyDescent="0.15">
@@ -1142,7 +1142,7 @@
         <v>89</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="4:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1171,7 +1171,7 @@
         <v>81</v>
       </c>
       <c r="O12" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="4:15" x14ac:dyDescent="0.15">
@@ -1203,7 +1203,7 @@
         <v>90</v>
       </c>
       <c r="O13" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.15">
@@ -1235,7 +1235,7 @@
         <v>91</v>
       </c>
       <c r="O14" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="4:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1264,7 +1264,7 @@
         <v>84</v>
       </c>
       <c r="O15" s="1">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="4:15" x14ac:dyDescent="0.15">
@@ -1296,7 +1296,7 @@
         <v>92</v>
       </c>
       <c r="O16" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="6:15" x14ac:dyDescent="0.15">
@@ -1328,7 +1328,7 @@
         <v>93</v>
       </c>
       <c r="O17" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="136">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -357,13 +357,136 @@
   <si>
     <t>DEFAULT</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting</t>
+  </si>
+  <si>
+    <t>组织设置</t>
+  </si>
+  <si>
+    <t>Organization Settings</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting.objectScheme-organization</t>
+  </si>
+  <si>
+    <t>字段定义</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>choerodon.route.rentsetting.objectScheme-organization</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting.page-organization</t>
+  </si>
+  <si>
+    <t>页面</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>choerodon.route.rentsetting.page-organization</t>
+  </si>
+  <si>
+    <t>baseline-file_copy</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting</t>
+  </si>
+  <si>
+    <t>项目设置</t>
+  </si>
+  <si>
+    <t>Project Manage</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.project</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting.objectScheme-project</t>
+  </si>
+  <si>
+    <t>choerodon.route.prosetting.objectScheme-project</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting.page-project</t>
+  </si>
+  <si>
+    <t>choerodon.route.prosetting.page-project</t>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段定义路由</t>
+  </si>
+  <si>
+    <t>页面路由</t>
+  </si>
+  <si>
+    <t>/issue/objectScheme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/issue/page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/issue/objectScheme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/issue/page</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGILE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>foundation-service.object-scheme.pageQuery</t>
+  </si>
+  <si>
+    <t>foundation-service.page.pageQuery</t>
+  </si>
+  <si>
+    <t>foundation-service.project-object-scheme.pageQuery</t>
+  </si>
+  <si>
+    <t>foundation-service.project-page.pageQuery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -387,6 +510,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -408,11 +537,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -715,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:N13"/>
+  <dimension ref="D7:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H13"/>
+      <selection activeCell="J14" sqref="J14:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -727,7 +857,7 @@
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="48.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.796875" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.59765625" style="1" customWidth="1"/>
@@ -948,6 +1078,122 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="4:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -961,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:O17"/>
+  <dimension ref="D7:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="D1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -974,9 +1220,9 @@
     <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="39.796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.19921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="57.796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.3984375" style="1" customWidth="1"/>
     <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.59765625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.59765625" style="1" customWidth="1"/>
@@ -1329,6 +1575,192 @@
       </c>
       <c r="O17" s="1">
         <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O20" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O21" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O22" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O23" s="1">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1344,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H17"/>
+  <dimension ref="D7:H26"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F18" sqref="F18:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1355,7 +1787,7 @@
     <col min="4" max="4" width="27.796875" customWidth="1"/>
     <col min="5" max="5" width="14.796875" customWidth="1"/>
     <col min="6" max="6" width="24.796875" customWidth="1"/>
-    <col min="7" max="7" width="39.796875" customWidth="1"/>
+    <col min="7" max="7" width="49.19921875" customWidth="1"/>
     <col min="8" max="8" width="21.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1483,6 +1915,105 @@
         <v>55</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1494,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:G13"/>
+  <dimension ref="D7:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1505,7 +2036,7 @@
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="54.796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="57.796875" style="1" customWidth="1"/>
     <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
@@ -1570,6 +2101,38 @@
       </c>
       <c r="G13" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="20540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -221,15 +221,6 @@
     <t>issue-service.state-machine.pagingQuery</t>
   </si>
   <si>
-    <t>issue-service.state-machine-scheme.pagingQuery</t>
-  </si>
-  <si>
-    <t>state-machine-service.status.queryStatusList</t>
-  </si>
-  <si>
-    <t>issue-service.priority.selectAll</t>
-  </si>
-  <si>
     <t>问题类型路由</t>
     <rPh sb="4" eb="5">
       <t>lu'you</t>
@@ -470,16 +461,32 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>foundation-service.object-scheme.pageQuery</t>
-  </si>
-  <si>
-    <t>foundation-service.page.pageQuery</t>
-  </si>
-  <si>
-    <t>foundation-service.project-object-scheme.pageQuery</t>
-  </si>
-  <si>
-    <t>foundation-service.project-page.pageQuery</t>
+    <t>issue-service.priority.selectAll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue-service.object-scheme.pageQuery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue-service.page.pageQuery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue-service.project-object-scheme.pageQuery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue-service.project-page.pageQuery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue-service.state-machine-scheme.pagingQuery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue-service.status.queryStatusList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -912,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>15</v>
@@ -941,13 +948,13 @@
         <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
         <v>15</v>
@@ -970,13 +977,13 @@
         <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
@@ -999,13 +1006,13 @@
         <v>23</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s">
         <v>15</v>
@@ -1028,13 +1035,13 @@
         <v>26</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K12" t="s">
         <v>15</v>
@@ -1057,13 +1064,13 @@
         <v>29</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s">
         <v>15</v>
@@ -1080,19 +1087,19 @@
     </row>
     <row r="14" spans="4:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>15</v>
@@ -1109,19 +1116,19 @@
     </row>
     <row r="15" spans="4:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>15</v>
@@ -1138,19 +1145,19 @@
     </row>
     <row r="16" spans="4:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>15</v>
@@ -1167,19 +1174,19 @@
     </row>
     <row r="17" spans="6:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>15</v>
@@ -1209,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="107" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="107" workbookViewId="0">
       <selection activeCell="G18" sqref="G18:G23"/>
     </sheetView>
   </sheetViews>
@@ -1274,13 +1281,13 @@
         <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
         <v>41</v>
@@ -1300,28 +1307,28 @@
     </row>
     <row r="9" spans="4:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O9" s="1">
         <v>10</v>
@@ -1341,10 +1348,10 @@
         <v>11</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
         <v>13</v>
@@ -1353,7 +1360,7 @@
         <v>46</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O10">
         <v>10</v>
@@ -1373,10 +1380,10 @@
         <v>16</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
@@ -1385,7 +1392,7 @@
         <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O11">
         <v>20</v>
@@ -1393,28 +1400,28 @@
     </row>
     <row r="12" spans="4:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O12" s="1">
         <v>20</v>
@@ -1434,10 +1441,10 @@
         <v>19</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
@@ -1446,7 +1453,7 @@
         <v>46</v>
       </c>
       <c r="N13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O13" s="1">
         <v>10</v>
@@ -1466,10 +1473,10 @@
         <v>22</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s">
         <v>13</v>
@@ -1478,7 +1485,7 @@
         <v>46</v>
       </c>
       <c r="N14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O14" s="1">
         <v>20</v>
@@ -1486,28 +1493,28 @@
     </row>
     <row r="15" spans="4:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O15" s="1">
         <v>30</v>
@@ -1527,10 +1534,10 @@
         <v>25</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L16" t="s">
         <v>13</v>
@@ -1539,7 +1546,7 @@
         <v>46</v>
       </c>
       <c r="N16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O16" s="1">
         <v>10</v>
@@ -1559,10 +1566,10 @@
         <v>28</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L17" t="s">
         <v>13</v>
@@ -1571,7 +1578,7 @@
         <v>46</v>
       </c>
       <c r="N17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O17" s="1">
         <v>20</v>
@@ -1579,16 +1586,16 @@
     </row>
     <row r="18" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F18" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>41</v>
@@ -1600,7 +1607,7 @@
         <v>42</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O18" s="1">
         <v>10</v>
@@ -1608,22 +1615,22 @@
     </row>
     <row r="19" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="J19" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>13</v>
@@ -1632,7 +1639,7 @@
         <v>46</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O19" s="1">
         <v>100</v>
@@ -1640,22 +1647,22 @@
     </row>
     <row r="20" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="J20" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>13</v>
@@ -1664,7 +1671,7 @@
         <v>46</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O20" s="1">
         <v>110</v>
@@ -1672,28 +1679,28 @@
     </row>
     <row r="21" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O21" s="1">
         <v>90</v>
@@ -1701,31 +1708,31 @@
     </row>
     <row r="22" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F22" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O22" s="1">
         <v>50</v>
@@ -1733,31 +1740,31 @@
     </row>
     <row r="23" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F23" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="L23" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O23" s="1">
         <v>60</v>
@@ -1779,7 +1786,7 @@
   <dimension ref="D7:H26"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:G26"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1793,24 +1800,24 @@
   <sheetData>
     <row r="7" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
         <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>39</v>
@@ -1821,10 +1828,10 @@
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>13</v>
@@ -1832,7 +1839,7 @@
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>44</v>
@@ -1843,7 +1850,7 @@
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>47</v>
@@ -1854,10 +1861,10 @@
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>13</v>
@@ -1865,7 +1872,7 @@
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>49</v>
@@ -1876,7 +1883,7 @@
     </row>
     <row r="14" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>51</v>
@@ -1887,10 +1894,10 @@
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>13</v>
@@ -1898,7 +1905,7 @@
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>53</v>
@@ -1909,7 +1916,7 @@
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F17" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>55</v>
@@ -1920,76 +1927,76 @@
     </row>
     <row r="18" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F18" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F19" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F20" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F21" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F23" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F24" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>13</v>
@@ -1997,10 +2004,10 @@
     </row>
     <row r="25" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F25" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>13</v>
@@ -2008,10 +2015,10 @@
     </row>
     <row r="26" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F26" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>13</v>
@@ -2027,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="179" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2084,7 +2091,7 @@
         <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.15">
@@ -2092,7 +2099,7 @@
         <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.15">
@@ -2100,39 +2107,39 @@
         <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F17" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/issue-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/issue-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5B34B90A-1B01-4944-A03D-10168628FCA2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="20540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId3"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -362,33 +363,21 @@
     <t>IAM</t>
   </si>
   <si>
-    <t>choerodon.code.rentsetting.objectScheme-organization</t>
-  </si>
-  <si>
     <t>字段定义</t>
   </si>
   <si>
     <t>Field</t>
   </si>
   <si>
-    <t>choerodon.route.rentsetting.objectScheme-organization</t>
-  </si>
-  <si>
     <t>storage</t>
   </si>
   <si>
-    <t>choerodon.code.rentsetting.page-organization</t>
-  </si>
-  <si>
     <t>页面</t>
   </si>
   <si>
     <t>Page</t>
   </si>
   <si>
-    <t>choerodon.route.rentsetting.page-organization</t>
-  </si>
-  <si>
     <t>baseline-file_copy</t>
   </si>
   <si>
@@ -405,18 +394,6 @@
   </si>
   <si>
     <t>project</t>
-  </si>
-  <si>
-    <t>choerodon.code.prosetting.objectScheme-project</t>
-  </si>
-  <si>
-    <t>choerodon.route.prosetting.objectScheme-project</t>
-  </si>
-  <si>
-    <t>choerodon.code.prosetting.page-project</t>
-  </si>
-  <si>
-    <t>choerodon.route.prosetting.page-project</t>
   </si>
   <si>
     <t>choerodon.code.rentsetting</t>
@@ -486,14 +463,46 @@
   </si>
   <si>
     <t>issue-service.status.queryStatusList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting.objectSchemes-organization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.rentsetting.pages-organization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting.objectSchemes-project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting.pages-project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.rentsetting.objectSchemes-organization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.rentsetting.pages-organization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.prosetting.objectSchemes-project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.prosetting.pages-project</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -851,14 +860,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:J17"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="136" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
@@ -876,7 +885,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -911,7 +920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
@@ -940,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:14">
       <c r="F9" t="s">
         <v>16</v>
       </c>
@@ -969,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:14">
       <c r="F10" t="s">
         <v>19</v>
       </c>
@@ -998,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:14">
       <c r="F11" t="s">
         <v>22</v>
       </c>
@@ -1027,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:14">
       <c r="F12" t="s">
         <v>25</v>
       </c>
@@ -1056,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:14">
       <c r="F13" t="s">
         <v>28</v>
       </c>
@@ -1085,12 +1094,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:14" s="1" customFormat="1">
       <c r="F14" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>69</v>
@@ -1099,7 +1108,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>15</v>
@@ -1114,12 +1123,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:14" s="1" customFormat="1">
       <c r="F15" s="1" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>69</v>
@@ -1128,7 +1137,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>15</v>
@@ -1143,21 +1152,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:14" s="1" customFormat="1">
       <c r="F16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="H16" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>15</v>
@@ -1172,21 +1181,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:14" s="1" customFormat="1">
       <c r="F17" s="1" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>15</v>
@@ -1213,19 +1222,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G23"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="58.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.796875" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="57.796875" style="1" customWidth="1"/>
@@ -1238,7 +1247,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1276,7 +1285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:15" ht="12.75" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1305,7 +1314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="4:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:15" s="1" customFormat="1">
       <c r="F9" s="1" t="s">
         <v>82</v>
       </c>
@@ -1334,7 +1343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>44</v>
       </c>
@@ -1366,7 +1375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:15">
       <c r="F11" t="s">
         <v>47</v>
       </c>
@@ -1398,7 +1407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="4:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:15" s="1" customFormat="1">
       <c r="F12" s="1" t="s">
         <v>83</v>
       </c>
@@ -1427,7 +1436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:15">
       <c r="F13" t="s">
         <v>49</v>
       </c>
@@ -1459,7 +1468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:15">
       <c r="F14" t="s">
         <v>51</v>
       </c>
@@ -1491,7 +1500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="4:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:15" s="1" customFormat="1">
       <c r="F15" s="1" t="s">
         <v>84</v>
       </c>
@@ -1520,7 +1529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:15">
       <c r="F16" t="s">
         <v>53</v>
       </c>
@@ -1552,7 +1561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:15">
       <c r="F17" t="s">
         <v>55</v>
       </c>
@@ -1584,9 +1593,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:15" s="1" customFormat="1">
       <c r="F18" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>96</v>
@@ -1613,18 +1622,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:15" s="1" customFormat="1">
       <c r="F19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>69</v>
@@ -1639,24 +1648,24 @@
         <v>46</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O19" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:15" s="1" customFormat="1">
       <c r="F20" s="1" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>69</v>
@@ -1671,30 +1680,30 @@
         <v>46</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O20" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:15" s="1" customFormat="1">
       <c r="F21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>42</v>
@@ -1706,65 +1715,65 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:15" s="1" customFormat="1">
       <c r="F22" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>69</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O22" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="6:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:15" s="1" customFormat="1">
       <c r="F23" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O23" s="1">
         <v>60</v>
@@ -1782,14 +1791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:H26"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="27.796875" customWidth="1"/>
     <col min="5" max="5" width="14.796875" customWidth="1"/>
@@ -1798,7 +1807,7 @@
     <col min="8" max="8" width="21.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:8">
       <c r="D7" s="2" t="s">
         <v>93</v>
       </c>
@@ -1815,7 +1824,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:8">
       <c r="F8" s="1" t="s">
         <v>94</v>
       </c>
@@ -1826,7 +1835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:8">
       <c r="F9" s="1" t="s">
         <v>94</v>
       </c>
@@ -1837,7 +1846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:8">
       <c r="F10" s="1" t="s">
         <v>94</v>
       </c>
@@ -1848,7 +1857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:8">
       <c r="F11" s="1" t="s">
         <v>94</v>
       </c>
@@ -1859,7 +1868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:8">
       <c r="F12" s="1" t="s">
         <v>94</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:8">
       <c r="F13" s="1" t="s">
         <v>94</v>
       </c>
@@ -1881,7 +1890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:8">
       <c r="F14" s="1" t="s">
         <v>94</v>
       </c>
@@ -1892,7 +1901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:8">
       <c r="F15" s="1" t="s">
         <v>94</v>
       </c>
@@ -1903,7 +1912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:8">
       <c r="F16" s="1" t="s">
         <v>94</v>
       </c>
@@ -1914,7 +1923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:8">
       <c r="F17" s="1" t="s">
         <v>94</v>
       </c>
@@ -1925,75 +1934,75 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:8" s="1" customFormat="1">
       <c r="F18" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="6:8">
       <c r="F19" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
       <c r="F20" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" s="1" customFormat="1">
       <c r="F21" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
       <c r="F22" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8">
       <c r="F23" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="6:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" s="1" customFormat="1">
       <c r="F24" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>95</v>
@@ -2002,23 +2011,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:8">
       <c r="F25" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:8">
       <c r="F26" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>13</v>
@@ -2031,14 +2040,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="179" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="E2" zoomScale="179" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" style="1" customWidth="1"/>
@@ -2048,7 +2057,7 @@
     <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>57</v>
       </c>
@@ -2062,7 +2071,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:7" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>44</v>
       </c>
@@ -2070,7 +2079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:7">
       <c r="F9" t="s">
         <v>47</v>
       </c>
@@ -2078,7 +2087,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:7">
       <c r="F10" t="s">
         <v>49</v>
       </c>
@@ -2086,60 +2095,60 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:7">
       <c r="F11" t="s">
         <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
       <c r="F12" t="s">
         <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7">
       <c r="F13" t="s">
         <v>55</v>
       </c>
       <c r="G13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7">
+      <c r="F14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7">
+      <c r="F15" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7">
+      <c r="F16" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F17" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
